--- a/outputs/svm_gridsearch_results.xlsx
+++ b/outputs/svm_gridsearch_results.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="1840" yWindow="2140" windowWidth="26440" windowHeight="18360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tfidf" sheetId="1" r:id="rId1"/>
+    <sheet name="doc2vec" sheetId="2" r:id="rId2"/>
+    <sheet name="table of results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t>precision</t>
   </si>
@@ -77,12 +79,63 @@
   <si>
     <t>avg/total</t>
   </si>
+  <si>
+    <t>Figure 8:</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Linear SVM</t>
+  </si>
+  <si>
+    <t>Polynomial SVM</t>
+  </si>
+  <si>
+    <t>RBF SVM (3 deg.)</t>
+  </si>
+  <si>
+    <t>RBF SVM (5 deg.)</t>
+  </si>
+  <si>
+    <t>Tuned SVM (RBF)</t>
+  </si>
+  <si>
+    <t>"UK government may be planning diesel-scrappage scheme&lt;p&gt;The UK's Department for Transport and the Department for Environment, Food and Rural Affairs is in talks to introduce a diesel vehicle scrappage scheme as the country searches for ways to cut carbon emissions and pollution, according to unnamed sources. The strategy would offer a discount on low-emissions cars or cash back to drivers who choose to trade in their old diesel vehicles. A Department for Transport spokesperson said there are presently no plans to introduce a scrappage scheme. However, Transport Secretary Chris Grayling has shown support for the measures in industry meetings, according to the Telegraph.&lt;/p&gt;"</t>
+  </si>
+  <si>
+    <t>carboneradiction</t>
+  </si>
+  <si>
+    <t>“UK-led consortium looks to robots to monitor windfarms and cables&lt;p&gt;A UK-led consortium is launching a $5m project to use robots for monitoring offshore wind farms and undersea cabling. The Engineering and Physical Sciences Research Council (EPSRC)-backed scheme hopes to improve how wind farms are maintained and managed. The project is developing "novel sensing techniques" to inspect systems in the field, said Dr David Flynn, director of Smart Systems Group at Heriot-Watt University, a member of the consortium. These include a dolphin-inspired local frequency sonar attached to an autonomous vehicle that can be used to inspect undersea cables, and drones to inspect offshore substations.&lt;/p&gt;\n”</t>
+  </si>
+  <si>
+    <t>ai/carboneradication</t>
+  </si>
+  <si>
+    <t>"Ubtech partners with Amazon's Alexa in new robot&lt;p&gt;Ubtech Robotics has partnered with Amazon to bring Alexa, Amazon’s virtual assistant, to its latest robot, Lynx. Owners of Lynx will be able to interact with it as though it were a personal assistant. Since its launch, Amazon has sold millions of Echo devices, but lately they have begun to free Alexa from her Echo chamber, installing the natural language-processing assistant in home devices, wearable technology, cars and even robots. Amazon seems to be using partners such as Ubtech to redefine the physical form of its cloud-based technology.&lt;/p&gt;\n"</t>
+  </si>
+  <si>
+    <t>ai/internetofthings</t>
+  </si>
+  <si>
+    <t>Tf-idf</t>
+  </si>
+  <si>
+    <t>doc2vec</t>
+  </si>
+  <si>
+    <t>Mean prediction accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,8 +167,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria Math"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +212,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +417,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,8 +453,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -396,8 +541,64 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -415,6 +616,20 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -432,6 +647,20 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2014,4 +2243,1447 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:V38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="22" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:22" s="5" customFormat="1" ht="19" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.61</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.59</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="30">
+        <v>676</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1631</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1943</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F8" s="29">
+        <v>642</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1525</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2739</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1188</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F12" s="29">
+        <v>776</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="29">
+        <v>770</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F14" s="29">
+        <v>617</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1607</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1076</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F17" s="29">
+        <v>849</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1362</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="2:22" s="1" customFormat="1">
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.64</v>
+      </c>
+      <c r="F19" s="32">
+        <v>17401</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+    </row>
+    <row r="24" spans="2:22" ht="106" customHeight="1">
+      <c r="I24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="H25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="19">
+        <v>398</v>
+      </c>
+      <c r="J25" s="20">
+        <v>26</v>
+      </c>
+      <c r="K25" s="20">
+        <v>40</v>
+      </c>
+      <c r="L25" s="20">
+        <v>3</v>
+      </c>
+      <c r="M25" s="20">
+        <v>17</v>
+      </c>
+      <c r="N25" s="20">
+        <v>11</v>
+      </c>
+      <c r="O25" s="20">
+        <v>25</v>
+      </c>
+      <c r="P25" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>49</v>
+      </c>
+      <c r="R25" s="20">
+        <v>24</v>
+      </c>
+      <c r="S25" s="20">
+        <v>14</v>
+      </c>
+      <c r="T25" s="20">
+        <v>49</v>
+      </c>
+      <c r="U25" s="20">
+        <v>10</v>
+      </c>
+      <c r="V25" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="H26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1134</v>
+      </c>
+      <c r="K26" s="2">
+        <v>45</v>
+      </c>
+      <c r="L26" s="2">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
+        <v>209</v>
+      </c>
+      <c r="N26" s="2">
+        <v>34</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>8</v>
+      </c>
+      <c r="R26" s="2">
+        <v>7</v>
+      </c>
+      <c r="S26" s="2">
+        <v>18</v>
+      </c>
+      <c r="T26" s="2">
+        <v>48</v>
+      </c>
+      <c r="U26" s="2">
+        <v>9</v>
+      </c>
+      <c r="V26" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="6">
+        <v>35</v>
+      </c>
+      <c r="J27" s="2">
+        <v>63</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1407</v>
+      </c>
+      <c r="L27" s="2">
+        <v>9</v>
+      </c>
+      <c r="M27" s="2">
+        <v>65</v>
+      </c>
+      <c r="N27" s="2">
+        <v>128</v>
+      </c>
+      <c r="O27" s="2">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>37</v>
+      </c>
+      <c r="R27" s="2">
+        <v>17</v>
+      </c>
+      <c r="S27" s="2">
+        <v>45</v>
+      </c>
+      <c r="T27" s="2">
+        <v>27</v>
+      </c>
+      <c r="U27" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="H28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20</v>
+      </c>
+      <c r="L28" s="2">
+        <v>236</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2">
+        <v>60</v>
+      </c>
+      <c r="O28" s="2">
+        <v>10</v>
+      </c>
+      <c r="P28" s="2">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>4</v>
+      </c>
+      <c r="R28" s="2">
+        <v>6</v>
+      </c>
+      <c r="S28" s="2">
+        <v>88</v>
+      </c>
+      <c r="T28" s="2">
+        <v>16</v>
+      </c>
+      <c r="U28" s="2">
+        <v>7</v>
+      </c>
+      <c r="V28" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="H29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2">
+        <v>212</v>
+      </c>
+      <c r="K29" s="2">
+        <v>82</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>992</v>
+      </c>
+      <c r="N29" s="2">
+        <v>68</v>
+      </c>
+      <c r="O29" s="2">
+        <v>8</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>11</v>
+      </c>
+      <c r="R29" s="2">
+        <v>3</v>
+      </c>
+      <c r="S29" s="2">
+        <v>21</v>
+      </c>
+      <c r="T29" s="2">
+        <v>82</v>
+      </c>
+      <c r="U29" s="2">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="H30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>22</v>
+      </c>
+      <c r="K30" s="2">
+        <v>152</v>
+      </c>
+      <c r="L30" s="2">
+        <v>24</v>
+      </c>
+      <c r="M30" s="2">
+        <v>37</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2044</v>
+      </c>
+      <c r="O30" s="2">
+        <v>9</v>
+      </c>
+      <c r="P30" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>19</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3</v>
+      </c>
+      <c r="S30" s="2">
+        <v>249</v>
+      </c>
+      <c r="T30" s="2">
+        <v>75</v>
+      </c>
+      <c r="U30" s="2">
+        <v>27</v>
+      </c>
+      <c r="V30" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="H31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="6">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
+      <c r="K31" s="2">
+        <v>16</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>22</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1052</v>
+      </c>
+      <c r="P31" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>4</v>
+      </c>
+      <c r="R31" s="2">
+        <v>5</v>
+      </c>
+      <c r="S31" s="2">
+        <v>17</v>
+      </c>
+      <c r="T31" s="2">
+        <v>30</v>
+      </c>
+      <c r="U31" s="2">
+        <v>5</v>
+      </c>
+      <c r="V31" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="H32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2">
+        <v>213</v>
+      </c>
+      <c r="M32" s="2">
+        <v>5</v>
+      </c>
+      <c r="N32" s="2">
+        <v>114</v>
+      </c>
+      <c r="O32" s="2">
+        <v>18</v>
+      </c>
+      <c r="P32" s="2">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>8</v>
+      </c>
+      <c r="R32" s="2">
+        <v>7</v>
+      </c>
+      <c r="S32" s="2">
+        <v>100</v>
+      </c>
+      <c r="T32" s="2">
+        <v>35</v>
+      </c>
+      <c r="U32" s="2">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="8:22">
+      <c r="H33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="6">
+        <v>42</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2">
+        <v>27</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>17</v>
+      </c>
+      <c r="O33" s="2">
+        <v>7</v>
+      </c>
+      <c r="P33" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>507</v>
+      </c>
+      <c r="R33" s="2">
+        <v>17</v>
+      </c>
+      <c r="S33" s="2">
+        <v>26</v>
+      </c>
+      <c r="T33" s="2">
+        <v>98</v>
+      </c>
+      <c r="U33" s="2">
+        <v>2</v>
+      </c>
+      <c r="V33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22">
+      <c r="H34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="6">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>21</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>12</v>
+      </c>
+      <c r="O34" s="2">
+        <v>11</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>16</v>
+      </c>
+      <c r="R34" s="2">
+        <v>478</v>
+      </c>
+      <c r="S34" s="2">
+        <v>11</v>
+      </c>
+      <c r="T34" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="8:22">
+      <c r="H35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="6">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2">
+        <v>49</v>
+      </c>
+      <c r="L35" s="2">
+        <v>68</v>
+      </c>
+      <c r="M35" s="2">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2">
+        <v>239</v>
+      </c>
+      <c r="O35" s="2">
+        <v>12</v>
+      </c>
+      <c r="P35" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>14</v>
+      </c>
+      <c r="R35" s="2">
+        <v>18</v>
+      </c>
+      <c r="S35" s="2">
+        <v>919</v>
+      </c>
+      <c r="T35" s="2">
+        <v>80</v>
+      </c>
+      <c r="U35" s="2">
+        <v>26</v>
+      </c>
+      <c r="V35" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22">
+      <c r="H36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="6">
+        <v>57</v>
+      </c>
+      <c r="J36" s="2">
+        <v>52</v>
+      </c>
+      <c r="K36" s="2">
+        <v>33</v>
+      </c>
+      <c r="L36" s="2">
+        <v>9</v>
+      </c>
+      <c r="M36" s="2">
+        <v>33</v>
+      </c>
+      <c r="N36" s="2">
+        <v>112</v>
+      </c>
+      <c r="O36" s="2">
+        <v>33</v>
+      </c>
+      <c r="P36" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>94</v>
+      </c>
+      <c r="R36" s="2">
+        <v>8</v>
+      </c>
+      <c r="S36" s="2">
+        <v>30</v>
+      </c>
+      <c r="T36" s="2">
+        <v>575</v>
+      </c>
+      <c r="U36" s="2">
+        <v>13</v>
+      </c>
+      <c r="V36" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22">
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>60</v>
+      </c>
+      <c r="L37" s="2">
+        <v>5</v>
+      </c>
+      <c r="M37" s="2">
+        <v>18</v>
+      </c>
+      <c r="N37" s="2">
+        <v>69</v>
+      </c>
+      <c r="O37" s="2">
+        <v>9</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>3</v>
+      </c>
+      <c r="R37" s="2">
+        <v>6</v>
+      </c>
+      <c r="S37" s="2">
+        <v>39</v>
+      </c>
+      <c r="T37" s="2">
+        <v>32</v>
+      </c>
+      <c r="U37" s="2">
+        <v>391</v>
+      </c>
+      <c r="V37" s="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22">
+      <c r="H38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="22">
+        <v>8</v>
+      </c>
+      <c r="J38" s="18">
+        <v>80</v>
+      </c>
+      <c r="K38" s="18">
+        <v>37</v>
+      </c>
+      <c r="L38" s="18">
+        <v>10</v>
+      </c>
+      <c r="M38" s="18">
+        <v>12</v>
+      </c>
+      <c r="N38" s="18">
+        <v>89</v>
+      </c>
+      <c r="O38" s="18">
+        <v>20</v>
+      </c>
+      <c r="P38" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>14</v>
+      </c>
+      <c r="R38" s="18">
+        <v>16</v>
+      </c>
+      <c r="S38" s="18">
+        <v>121</v>
+      </c>
+      <c r="T38" s="18">
+        <v>21</v>
+      </c>
+      <c r="U38" s="18">
+        <v>142</v>
+      </c>
+      <c r="V38" s="23">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="39" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="25" customHeight="1"/>
+    <row r="4" spans="2:7" ht="265" customHeight="1">
+      <c r="B4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="38">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="49"/>
+      <c r="C7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="49"/>
+      <c r="C8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="49"/>
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="49"/>
+      <c r="C10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="49"/>
+      <c r="C11" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="48">
+        <v>77.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>